--- a/Interview Preparation/Study Master.xlsx
+++ b/Interview Preparation/Study Master.xlsx
@@ -14,12 +14,15 @@
     <sheet name="Security Related" sheetId="9" r:id="rId5"/>
     <sheet name="Resume Content" sheetId="7" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Java and Related '!$A$1:$E$1</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="77">
   <si>
     <t>AngularJS - Basic and then advanced</t>
   </si>
@@ -78,9 +81,6 @@
     <t>HALF DONE</t>
   </si>
   <si>
-    <t>N.A</t>
-  </si>
-  <si>
     <t>Node.js</t>
   </si>
   <si>
@@ -138,15 +138,6 @@
     <t>Pending</t>
   </si>
   <si>
-    <t>Done</t>
-  </si>
-  <si>
-    <t>revisit</t>
-  </si>
-  <si>
-    <t>done</t>
-  </si>
-  <si>
     <t>Security in Applications</t>
   </si>
   <si>
@@ -259,6 +250,9 @@
   </si>
   <si>
     <t>Java internals - gc working</t>
+  </si>
+  <si>
+    <t>Jaas and other authentication mechanism. Spring security</t>
   </si>
 </sst>
 </file>
@@ -346,13 +340,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -384,13 +378,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -422,13 +416,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>191</xdr:row>
+      <xdr:row>187</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -460,13 +454,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>198</xdr:row>
+      <xdr:row>194</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>249</xdr:row>
+      <xdr:row>245</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -782,300 +776,451 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E196"/>
+  <dimension ref="A1:E192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1">
+    <row r="1" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A1" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="4" customFormat="1">
+    </row>
+    <row r="2" spans="1:5" s="4" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="4" customFormat="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="4" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B3" s="4">
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="4" customFormat="1" ht="30">
-      <c r="A4" s="2" t="s">
-        <v>27</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="4" customFormat="1">
+      <c r="A4" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="B4" s="4">
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="4" customFormat="1">
-      <c r="A5" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="4" customFormat="1" ht="60">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="4" customFormat="1">
+      <c r="A6" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="4" customFormat="1">
+      <c r="A7" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="4" customFormat="1">
+      <c r="A8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="4">
+        <v>2</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="4" customFormat="1">
+      <c r="A9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4">
+        <v>2</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="4">
+        <v>2</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" s="1" customFormat="1" ht="30">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="4" customFormat="1">
+      <c r="A12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="4">
+        <v>2</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="4" customFormat="1">
+      <c r="A13" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="4">
+        <v>2</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="4" customFormat="1">
+      <c r="A14" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="4">
+        <v>2</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="4" customFormat="1">
+      <c r="A15" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" s="4" customFormat="1" ht="45">
-      <c r="A6" s="4" t="s">
+      <c r="B15" s="4">
+        <v>2</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="4" customFormat="1" ht="45">
+      <c r="A16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="4">
+        <v>2</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16"/>
+    </row>
+    <row r="17" spans="1:5" s="4" customFormat="1">
+      <c r="A17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="4">
+        <v>3</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="4" customFormat="1" ht="45">
+      <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="4">
-        <v>2</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="4" customFormat="1" ht="30">
-      <c r="A7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="4">
-        <v>2</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="4" customFormat="1">
-      <c r="A8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="4">
+      <c r="B18" s="4">
         <v>3</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="4" customFormat="1">
-      <c r="A9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="4">
+      <c r="C18" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="4" customFormat="1">
+      <c r="A19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="4">
         <v>3</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" s="1" customFormat="1">
-      <c r="A11" s="1" t="s">
+      <c r="C19" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19"/>
+    </row>
+    <row r="20" spans="1:5" s="4" customFormat="1">
+      <c r="A20" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" s="4" customFormat="1">
-      <c r="A12" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" s="4" customFormat="1" ht="30">
-      <c r="A13" s="1" t="s">
+      <c r="B20" s="4">
+        <v>3</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="4" customFormat="1" ht="30">
+      <c r="A21" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" s="4" customFormat="1">
-      <c r="A14" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" s="4" customFormat="1" ht="30">
-      <c r="A15" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" s="4" customFormat="1" ht="90">
-      <c r="A16" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" s="4" customFormat="1" ht="30">
-      <c r="A17" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="4" customFormat="1">
-      <c r="A18" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" s="4" customFormat="1">
-      <c r="A19" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="4" customFormat="1">
-      <c r="A20" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" s="4" customFormat="1">
-      <c r="A21" s="6" t="s">
-        <v>64</v>
+      <c r="B21" s="4">
+        <v>3</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="4" customFormat="1">
       <c r="A22" s="6" t="s">
-        <v>65</v>
+        <v>75</v>
+      </c>
+      <c r="B22" s="4">
+        <v>3</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="4" customFormat="1">
       <c r="A23" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" s="4" customFormat="1">
-      <c r="A24" s="6" t="s">
-        <v>73</v>
+        <v>61</v>
+      </c>
+      <c r="B23" s="4">
+        <v>3</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="1" customFormat="1">
+      <c r="A24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="1">
+        <v>3</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="4" customFormat="1">
-      <c r="A25" s="6"/>
-    </row>
-    <row r="26" spans="1:5" s="4" customFormat="1"/>
-    <row r="27" spans="1:5" s="4" customFormat="1"/>
-    <row r="28" spans="1:5" s="4" customFormat="1"/>
-    <row r="29" spans="1:5" s="4" customFormat="1"/>
+      <c r="A25" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="4">
+        <v>3</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="4">
+        <v>4</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4">
+        <v>4</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="4"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="4"/>
+    </row>
     <row r="30" spans="1:5" s="1" customFormat="1">
-      <c r="A30" s="4"/>
-      <c r="B30" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" s="1">
-        <v>2</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" s="4" customFormat="1">
-      <c r="A31" s="1"/>
-      <c r="B31" s="4">
-        <v>3</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" s="4" customFormat="1">
-      <c r="A32" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B32" s="4">
-        <v>0</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="4" t="s">
+      <c r="A30"/>
+      <c r="B30"/>
+    </row>
+    <row r="31" spans="1:5" s="1" customFormat="1">
+      <c r="B31" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" s="1" customFormat="1">
-      <c r="A34"/>
-    </row>
-    <row r="35" spans="1:3" s="1" customFormat="1"/>
-    <row r="36" spans="1:3" s="1" customFormat="1"/>
-    <row r="37" spans="1:3" s="1" customFormat="1"/>
-    <row r="38" spans="1:3" s="1" customFormat="1"/>
-    <row r="39" spans="1:3" s="1" customFormat="1"/>
-    <row r="40" spans="1:3" s="1" customFormat="1"/>
-    <row r="41" spans="1:3" s="1" customFormat="1"/>
-    <row r="42" spans="1:3" s="1" customFormat="1"/>
-    <row r="43" spans="1:3" s="1" customFormat="1"/>
-    <row r="44" spans="1:3" s="1" customFormat="1"/>
-    <row r="45" spans="1:3" s="1" customFormat="1"/>
-    <row r="46" spans="1:3" s="1" customFormat="1"/>
-    <row r="47" spans="1:3" s="1" customFormat="1"/>
-    <row r="48" spans="1:3">
-      <c r="A48" s="1"/>
-    </row>
-    <row r="81" spans="3:3">
-      <c r="C81" s="5" t="s">
-        <v>47</v>
-      </c>
+    </row>
+    <row r="32" spans="1:5" s="1" customFormat="1"/>
+    <row r="33" spans="1:2" s="1" customFormat="1"/>
+    <row r="34" spans="1:2" s="1" customFormat="1"/>
+    <row r="35" spans="1:2" s="1" customFormat="1"/>
+    <row r="36" spans="1:2" s="1" customFormat="1"/>
+    <row r="37" spans="1:2" s="1" customFormat="1"/>
+    <row r="38" spans="1:2" s="1" customFormat="1"/>
+    <row r="39" spans="1:2" s="1" customFormat="1"/>
+    <row r="40" spans="1:2" s="1" customFormat="1"/>
+    <row r="41" spans="1:2" s="1" customFormat="1"/>
+    <row r="42" spans="1:2" s="1" customFormat="1"/>
+    <row r="43" spans="1:2" s="1" customFormat="1"/>
+    <row r="44" spans="1:2">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+    </row>
+    <row r="77" spans="3:3">
+      <c r="C77" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="1"/>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="1"/>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="1"/>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="1"/>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="1"/>
@@ -1104,29 +1249,22 @@
     <row r="109" spans="1:1">
       <c r="A109" s="1"/>
     </row>
-    <row r="110" spans="1:1">
-      <c r="A110" s="1"/>
-    </row>
-    <row r="111" spans="1:1">
-      <c r="A111" s="1"/>
-    </row>
-    <row r="112" spans="1:1">
-      <c r="A112" s="1"/>
-    </row>
-    <row r="113" spans="1:1">
-      <c r="A113" s="1"/>
-    </row>
-    <row r="138" spans="3:3">
-      <c r="C138" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="196" spans="3:3">
-      <c r="C196" s="5" t="s">
-        <v>49</v>
+    <row r="134" spans="3:3">
+      <c r="C134" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="192" spans="3:3">
+      <c r="C192" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E1">
+    <sortState ref="A2:E27">
+      <sortCondition ref="B1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -1137,8 +1275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.7109375" defaultRowHeight="15"/>
@@ -1148,44 +1286,44 @@
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="4" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" s="4">
         <v>2</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="4" customFormat="1">
       <c r="A3" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1206,42 +1344,42 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="4" customFormat="1">
       <c r="A10" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="4" customFormat="1">
       <c r="A11" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="4" customFormat="1">
       <c r="A12" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="4" customFormat="1">
       <c r="A13" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:4" s="4" customFormat="1"/>
@@ -1251,35 +1389,35 @@
     <row r="18" spans="1:4" s="4" customFormat="1"/>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" s="4" customFormat="1" ht="30">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" s="4" customFormat="1" ht="45">
       <c r="A22" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22" s="4">
         <v>3</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" s="4" customFormat="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" s="4" customFormat="1" ht="30">
       <c r="A23" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="4">
         <v>3</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1292,7 +1430,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1316,74 +1454,74 @@
     <col min="4" max="4" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="97" spans="1:7" s="4" customFormat="1">
+    <row r="97" spans="1:7" s="4" customFormat="1" ht="45">
       <c r="A97" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B97" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C97" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C97" s="4" t="s">
+      <c r="D97" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="D97" s="4" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="98" spans="1:7" s="4" customFormat="1" ht="60">
       <c r="A98" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B98" s="4">
         <v>2</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="99" spans="1:7" s="4" customFormat="1">
       <c r="A99" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B99" s="4">
         <v>3</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="100" spans="1:7" s="4" customFormat="1">
       <c r="A100" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B100" s="4">
         <v>3</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="101" spans="1:7" s="4" customFormat="1" ht="30">
       <c r="A101" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B101" s="4">
         <v>3</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="102" spans="1:7" s="4" customFormat="1" ht="75">
@@ -1402,16 +1540,16 @@
     </row>
     <row r="103" spans="1:7" s="4" customFormat="1">
       <c r="A103" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B103" s="4">
         <v>3</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1435,59 +1573,59 @@
     <col min="1" max="1" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" ht="90">
+    <row r="2" spans="1:1" ht="30">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:1">
@@ -1564,24 +1702,27 @@
   <dimension ref="A3:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1593,9 +1734,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>

--- a/Interview Preparation/Study Master.xlsx
+++ b/Interview Preparation/Study Master.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Java and Related " sheetId="1" r:id="rId1"/>
@@ -778,7 +778,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
@@ -1276,7 +1276,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.7109375" defaultRowHeight="15"/>
@@ -1441,10 +1441,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A97:G103"/>
+  <dimension ref="A2:G8"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="A103" sqref="A103:XFD103"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1454,107 +1454,107 @@
     <col min="4" max="4" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="97" spans="1:7" s="4" customFormat="1" ht="45">
-      <c r="A97" s="4" t="s">
+    <row r="2" spans="1:7" s="4" customFormat="1" ht="45">
+      <c r="A2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B97" s="4" t="s">
+      <c r="B2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C97" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D97" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="98" spans="1:7" s="4" customFormat="1" ht="60">
-      <c r="A98" s="4" t="s">
+    <row r="3" spans="1:7" s="4" customFormat="1" ht="60">
+      <c r="A3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B98" s="4">
+      <c r="B3" s="4">
         <v>2</v>
       </c>
-      <c r="C98" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D98" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" s="4" customFormat="1">
-      <c r="A99" s="4" t="s">
+      <c r="C3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1">
+      <c r="A4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B99" s="4">
+      <c r="B4" s="4">
         <v>3</v>
       </c>
-      <c r="C99" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D99" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" s="4" customFormat="1">
-      <c r="A100" s="4" t="s">
+      <c r="C4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="4" customFormat="1">
+      <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B100" s="4">
+      <c r="B5" s="4">
         <v>3</v>
       </c>
-      <c r="C100" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D100" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" s="4" customFormat="1" ht="30">
-      <c r="A101" s="4" t="s">
+      <c r="C5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="4" customFormat="1" ht="30">
+      <c r="A6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B101" s="4">
+      <c r="B6" s="4">
         <v>3</v>
       </c>
-      <c r="C101" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D101" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" s="4" customFormat="1" ht="75">
-      <c r="A102" s="4" t="s">
+      <c r="C6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="4" customFormat="1" ht="75">
+      <c r="A7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E102" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F102" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G102" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="1:7" s="4" customFormat="1">
-      <c r="A103" s="4" t="s">
+    <row r="8" spans="1:7" s="4" customFormat="1">
+      <c r="A8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B103" s="4">
+      <c r="B8" s="4">
         <v>3</v>
       </c>
-      <c r="C103" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D103" s="4" t="s">
+      <c r="C8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>37</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A101" r:id="rId1" display="https://developer.mozilla.org/en-US/docs/Web/API/Web_Storage_API"/>
+    <hyperlink ref="A6" r:id="rId1" display="https://developer.mozilla.org/en-US/docs/Web/API/Web_Storage_API"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
